--- a/clientes/Arranjo Decorações/Orcamentos/arranjo/78.xlsx
+++ b/clientes/Arranjo Decorações/Orcamentos/arranjo/78.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\myxlsm\clientes\Arranjo Decorações\orcamentos\arranjo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{17F1D374-2903-4DC5-9739-B197527793A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E819BB0-6DFC-4613-97CC-50599AAFD2AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="59">
   <si>
     <t>id</t>
   </si>
@@ -632,6 +632,9 @@
       <c r="J2" t="s">
         <v>18</v>
       </c>
+      <c r="K2" t="s">
+        <v>57</v>
+      </c>
       <c r="O2" t="s">
         <v>57</v>
       </c>
